--- a/stress_strain_excel/stress_strain_CFRP2_lap=20_1.xlsx
+++ b/stress_strain_excel/stress_strain_CFRP2_lap=20_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FAF5DC-8960-D543-BDD1-D5C073EC4086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F840740-6C0D-3F4B-9EA5-87218FA77BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="9000" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="3200" windowWidth="16100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1735,16 +1735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2060,7 +2060,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
